--- a/dataset/workspaceGame/Notes/Posible States.xlsx
+++ b/dataset/workspaceGame/Notes/Posible States.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgio6846/Github/TrabajoFinal-IA/dataset/workspaceGame/Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C348AF92-54BE-6F49-93B2-AF66EAFBCC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34A3B97-4277-AF45-A93E-55379F1F10B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="840" windowWidth="37920" windowHeight="20520" xr2:uid="{3E8BE3C8-22A4-7345-B22F-E4B4869B5507}"/>
+    <workbookView xWindow="-38160" yWindow="840" windowWidth="18840" windowHeight="20520" xr2:uid="{3E8BE3C8-22A4-7345-B22F-E4B4869B5507}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>Estado Inicial</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Usable Ace</t>
-  </si>
-  <si>
-    <t>Has Split</t>
   </si>
   <si>
     <t>Has Double</t>
@@ -223,11 +220,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -576,7 +572,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="191" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,307 +589,261 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>30</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <f>(C4-B4)/D4 + D4</f>
         <v>27</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3">
+      <c r="G4">
         <f>E4</f>
         <v>27</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>0.1</v>
       </c>
-      <c r="J4" s="8">
-        <f>$G$11*I4</f>
-        <v>15746.400000000001</v>
+      <c r="J4" s="7">
+        <f>$G$10*I4</f>
+        <v>9622.8000000000011</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>30</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" ref="E5:E10" si="0">(C5-B5)/D5 + D5</f>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E7" si="0">(C5-B5)/D5 + D5</f>
         <v>27</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
-        <f>E5*G4</f>
+      <c r="G5">
+        <f t="shared" ref="G5:G9" si="1">E5*G4</f>
         <v>729</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0.2</v>
       </c>
-      <c r="J5" s="8">
-        <f>$G$11*I5</f>
-        <v>31492.800000000003</v>
+      <c r="J5" s="7">
+        <f>$G$10*I5</f>
+        <v>19245.600000000002</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <f>E6*G5</f>
+      <c r="G6">
+        <f t="shared" si="1"/>
         <v>1458</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>0.3</v>
       </c>
-      <c r="J6" s="8">
-        <f>$G$11*I6</f>
-        <v>47239.199999999997</v>
+      <c r="J6" s="7">
+        <f>$G$10*I6</f>
+        <v>28868.399999999998</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="0"/>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f>(C7-B7)/D7 + D7</f>
         <v>2</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
-        <f>E7*G6</f>
+      <c r="G7">
+        <f t="shared" si="1"/>
         <v>2916</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0.4</v>
       </c>
-      <c r="J7" s="8">
-        <f>$G$11*I7</f>
-        <v>62985.600000000006</v>
+      <c r="J7" s="7">
+        <f>$G$10*I7</f>
+        <v>38491.200000000004</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f>(C8-B8)/D8 + D8</f>
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>32076</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="7">
+        <f>$G$10*I8</f>
+        <v>48114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <f>E8*G7</f>
-        <v>5832</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="8">
-        <f>$G$11*I8</f>
-        <v>78732</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
-        <f>E9*G8</f>
-        <v>52488</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f>(C9-B9)/D9 + D9</f>
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>96228</v>
+      </c>
+      <c r="I9" s="3">
         <v>0.6</v>
       </c>
-      <c r="J9" s="8">
-        <f>$G$11*I9</f>
-        <v>94478.399999999994</v>
+      <c r="J9" s="7">
+        <f>$G$10*I9</f>
+        <v>57736.799999999996</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <f>E10*G9</f>
-        <v>157464</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4">
+      <c r="A10" s="6"/>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <f>G9</f>
+        <v>96228</v>
+      </c>
+      <c r="I10" s="3">
         <v>0.7</v>
       </c>
-      <c r="J10" s="8">
-        <f>$G$11*I10</f>
-        <v>110224.79999999999</v>
+      <c r="J10" s="7">
+        <f>$G$10*I10</f>
+        <v>67359.599999999991</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3">
-        <f>G10</f>
-        <v>157464</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>0.8</v>
       </c>
-      <c r="J11" s="8">
-        <f>$G$11*I11</f>
-        <v>125971.20000000001</v>
+      <c r="J11" s="7">
+        <f>$G$10*I11</f>
+        <v>76982.400000000009</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4">
+      <c r="A12" s="6"/>
+      <c r="I12" s="3">
         <v>0.9</v>
       </c>
-      <c r="J12" s="8">
-        <f>$G$11*I12</f>
-        <v>141717.6</v>
+      <c r="J12" s="7">
+        <f>$G$10*I12</f>
+        <v>86605.2</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11">
-        <v>1</v>
-      </c>
-      <c r="J13" s="12">
-        <f>$G$11*I13</f>
-        <v>157464</v>
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11">
+        <f>$G$10*I13</f>
+        <v>96228</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -901,302 +851,256 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="6"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>4</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>30</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <f>(C16-B16)/D16 + D16</f>
         <v>27</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3">
+      <c r="G16">
         <f>E16</f>
         <v>27</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>0.1</v>
       </c>
-      <c r="J16" s="8">
-        <f>$G$23*I16</f>
-        <v>7873.2000000000007</v>
+      <c r="J16" s="7">
+        <f>$G$22*I16</f>
+        <v>8748</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>30</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" ref="E17:E22" si="1">(C17-B17)/D17 + D17</f>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:E22" si="2">(C17-B17)/D17 + D17</f>
         <v>27</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
-        <f>E17*G16</f>
+      <c r="G17">
+        <f t="shared" ref="G17:G22" si="3">E17*G16</f>
         <v>729</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>0.2</v>
       </c>
-      <c r="J17" s="8">
-        <f t="shared" ref="J17:J25" si="2">$G$23*I17</f>
-        <v>15746.400000000001</v>
+      <c r="J17" s="7">
+        <f>$G$22*I17</f>
+        <v>17496</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="1"/>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3">
-        <f>E18*G17</f>
+      <c r="G18">
+        <f t="shared" si="3"/>
         <v>1458</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>0.3</v>
       </c>
-      <c r="J18" s="8">
-        <f t="shared" si="2"/>
-        <v>23619.599999999999</v>
+      <c r="J18" s="7">
+        <f>$G$22*I18</f>
+        <v>26244</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f>(C19-B19)/D19 + D19</f>
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>2916</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="J19" s="7">
+        <f>$G$22*I19</f>
+        <v>34992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f>(C20-B20)/D20 + D20</f>
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>29160</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="7">
+        <f>$G$22*I20</f>
+        <v>43740</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
         <v>0</v>
       </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3">
-        <f>E19*G18</f>
-        <v>1458</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="J19" s="8">
-        <f t="shared" si="2"/>
-        <v>31492.800000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="1"/>
+      <c r="C21">
         <v>2</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3">
-        <f>E20*G19</f>
-        <v>2916</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J20" s="8">
-        <f t="shared" si="2"/>
-        <v>39366</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>9</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3">
-        <f>E21*G20</f>
-        <v>26244</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f>(C21-B21)/D21 + D21</f>
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>87480</v>
+      </c>
+      <c r="I21" s="3">
         <v>0.6</v>
       </c>
-      <c r="J21" s="8">
-        <f t="shared" si="2"/>
-        <v>47239.199999999997</v>
+      <c r="J21" s="7">
+        <f>$G$22*I21</f>
+        <v>52488</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3">
-        <f>E22*G21</f>
+      <c r="A22" s="6"/>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <f>G21</f>
+        <v>87480</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="J22" s="7">
+        <f>$G$22*I22</f>
+        <v>61235.999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I23" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J23" s="7">
+        <f>$G$22*I23</f>
+        <v>69984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="I24" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J24" s="7">
+        <f>$G$22*I24</f>
         <v>78732</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J22" s="8">
-        <f t="shared" si="2"/>
-        <v>55112.399999999994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="3">
-        <f>G22</f>
-        <v>78732</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="J23" s="8">
-        <f t="shared" si="2"/>
-        <v>62985.600000000006</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="J24" s="8">
-        <f t="shared" si="2"/>
-        <v>70858.8</v>
-      </c>
     </row>
     <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11">
-        <v>1</v>
-      </c>
-      <c r="J25" s="12">
-        <f t="shared" si="2"/>
-        <v>78732</v>
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
+      <c r="J25" s="11">
+        <f>$G$22*I25</f>
+        <v>87480</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1204,302 +1108,256 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="6"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
         <v>30</v>
       </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
         <f>(C29-B29)/D29 + D29</f>
         <v>27</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3">
+      <c r="G29">
         <f>E29</f>
         <v>27</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <v>0.1</v>
       </c>
-      <c r="J29" s="8">
-        <f>$G$36*I29</f>
-        <v>3936.6000000000004</v>
+      <c r="J29" s="7">
+        <f>$G$35*I29</f>
+        <v>4374</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>4</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>30</v>
       </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <f t="shared" ref="E30:E35" si="3">(C30-B30)/D30 + D30</f>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30:E35" si="4">(C30-B30)/D30 + D30</f>
         <v>27</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3">
-        <f>E30*G29</f>
+      <c r="G30">
+        <f t="shared" ref="G30:G35" si="5">E30*G29</f>
         <v>729</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <v>0.2</v>
       </c>
-      <c r="J30" s="8">
-        <f t="shared" ref="J30:J38" si="4">$G$36*I30</f>
-        <v>7873.2000000000007</v>
+      <c r="J30" s="7">
+        <f>$G$35*I30</f>
+        <v>8748</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <f t="shared" si="3"/>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3">
-        <f>E31*G30</f>
+      <c r="G31">
+        <f t="shared" si="5"/>
         <v>1458</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="4">
+      <c r="I31" s="3">
         <v>0.3</v>
       </c>
-      <c r="J31" s="8">
-        <f t="shared" si="4"/>
-        <v>11809.8</v>
+      <c r="J31" s="7">
+        <f>$G$35*I31</f>
+        <v>13122</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f>(C32-B32)/D32 + D32</f>
+        <v>1</v>
+      </c>
+      <c r="G32">
         <f>E32*G31</f>
         <v>1458</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="4">
+      <c r="I32" s="3">
         <v>0.4</v>
       </c>
-      <c r="J32" s="8">
-        <f t="shared" si="4"/>
-        <v>15746.400000000001</v>
+      <c r="J32" s="7">
+        <f>$G$35*I32</f>
+        <v>17496</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f>(C33-B33)/D33 + D33</f>
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>14580</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J33" s="7">
+        <f>$G$35*I33</f>
+        <v>21870</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
         <v>0</v>
       </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3">
-        <f>E33*G32</f>
-        <v>1458</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J33" s="8">
-        <f t="shared" si="4"/>
-        <v>19683</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3">
-        <v>9</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3">
-        <f>E34*G33</f>
-        <v>13122</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="4">
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <f>(C34-B34)/D34 + D34</f>
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>43740</v>
+      </c>
+      <c r="I34" s="3">
         <v>0.6</v>
       </c>
-      <c r="J34" s="8">
-        <f t="shared" si="4"/>
-        <v>23619.599999999999</v>
+      <c r="J34" s="7">
+        <f>$G$35*I34</f>
+        <v>26244</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3">
-        <v>2</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3">
-        <f>E35*G34</f>
+      <c r="A35" s="6"/>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35">
+        <f>G34</f>
+        <v>43740</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="J35" s="7">
+        <f>$G$35*I35</f>
+        <v>30617.999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I36" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J36" s="7">
+        <f>$G$35*I36</f>
+        <v>34992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="I37" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J37" s="7">
+        <f>$G$35*I37</f>
         <v>39366</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J35" s="8">
-        <f t="shared" si="4"/>
-        <v>27556.199999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="3">
-        <f>G35</f>
-        <v>39366</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="J36" s="8">
-        <f t="shared" si="4"/>
-        <v>31492.800000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="J37" s="8">
-        <f t="shared" si="4"/>
-        <v>35429.4</v>
-      </c>
     </row>
     <row r="38" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="11">
-        <v>1</v>
-      </c>
-      <c r="J38" s="12">
-        <f t="shared" si="4"/>
-        <v>39366</v>
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10">
+        <v>1</v>
+      </c>
+      <c r="J38" s="11">
+        <f>$G$35*I38</f>
+        <v>43740</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/workspaceGame/Notes/Posible States.xlsx
+++ b/dataset/workspaceGame/Notes/Posible States.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgio6846/Github/TrabajoFinal-IA/dataset/workspaceGame/Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34A3B97-4277-AF45-A93E-55379F1F10B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7577BFF-85C7-3943-8540-A1CF89BD5E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38160" yWindow="840" windowWidth="18840" windowHeight="20520" xr2:uid="{3E8BE3C8-22A4-7345-B22F-E4B4869B5507}"/>
+    <workbookView xWindow="-38160" yWindow="840" windowWidth="37920" windowHeight="20520" xr2:uid="{3E8BE3C8-22A4-7345-B22F-E4B4869B5507}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1797798D-777C-3649-904B-1B9CA69293F4}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="191" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="150" zoomScaleNormal="191" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -644,8 +644,8 @@
         <v>0.1</v>
       </c>
       <c r="J4" s="7">
-        <f>$G$10*I4</f>
-        <v>9622.8000000000011</v>
+        <f t="shared" ref="J4:J13" si="0">$G$10*I4</f>
+        <v>8910</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -653,28 +653,28 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E7" si="0">(C5-B5)/D5 + D5</f>
-        <v>27</v>
+        <f t="shared" ref="E5:E6" si="1">(C5-B5)/D5 + D5</f>
+        <v>25</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G9" si="1">E5*G4</f>
-        <v>729</v>
+        <f t="shared" ref="G5:G9" si="2">E5*G4</f>
+        <v>675</v>
       </c>
       <c r="I5" s="3">
         <v>0.2</v>
       </c>
       <c r="J5" s="7">
-        <f>$G$10*I5</f>
-        <v>19245.600000000002</v>
+        <f t="shared" si="0"/>
+        <v>17820</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -691,19 +691,19 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
-        <v>1458</v>
+        <f t="shared" si="2"/>
+        <v>1350</v>
       </c>
       <c r="I6" s="3">
         <v>0.3</v>
       </c>
       <c r="J6" s="7">
-        <f>$G$10*I6</f>
-        <v>28868.399999999998</v>
+        <f t="shared" si="0"/>
+        <v>26730</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -724,15 +724,15 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>2916</v>
+        <f t="shared" si="2"/>
+        <v>2700</v>
       </c>
       <c r="I7" s="3">
         <v>0.4</v>
       </c>
       <c r="J7" s="7">
-        <f>$G$10*I7</f>
-        <v>38491.200000000004</v>
+        <f t="shared" si="0"/>
+        <v>35640</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -753,15 +753,15 @@
         <v>11</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>32076</v>
+        <f t="shared" si="2"/>
+        <v>29700</v>
       </c>
       <c r="I8" s="3">
         <v>0.5</v>
       </c>
       <c r="J8" s="7">
-        <f>$G$10*I8</f>
-        <v>48114</v>
+        <f t="shared" si="0"/>
+        <v>44550</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -782,15 +782,15 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>96228</v>
+        <f t="shared" si="2"/>
+        <v>89100</v>
       </c>
       <c r="I9" s="3">
         <v>0.6</v>
       </c>
       <c r="J9" s="7">
-        <f>$G$10*I9</f>
-        <v>57736.799999999996</v>
+        <f t="shared" si="0"/>
+        <v>53460</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -800,14 +800,14 @@
       </c>
       <c r="G10">
         <f>G9</f>
-        <v>96228</v>
+        <v>89100</v>
       </c>
       <c r="I10" s="3">
         <v>0.7</v>
       </c>
       <c r="J10" s="7">
-        <f>$G$10*I10</f>
-        <v>67359.599999999991</v>
+        <f t="shared" si="0"/>
+        <v>62369.999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -815,8 +815,8 @@
         <v>0.8</v>
       </c>
       <c r="J11" s="7">
-        <f>$G$10*I11</f>
-        <v>76982.400000000009</v>
+        <f t="shared" si="0"/>
+        <v>71280</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -825,8 +825,8 @@
         <v>0.9</v>
       </c>
       <c r="J12" s="7">
-        <f>$G$10*I12</f>
-        <v>86605.2</v>
+        <f t="shared" si="0"/>
+        <v>80190</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -842,8 +842,8 @@
         <v>1</v>
       </c>
       <c r="J13" s="11">
-        <f>$G$10*I13</f>
-        <v>96228</v>
+        <f t="shared" si="0"/>
+        <v>89100</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -901,8 +901,8 @@
         <v>0.1</v>
       </c>
       <c r="J16" s="7">
-        <f>$G$22*I16</f>
-        <v>8748</v>
+        <f t="shared" ref="J16:J25" si="3">$G$22*I16</f>
+        <v>5940</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -910,28 +910,28 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:E22" si="2">(C17-B17)/D17 + D17</f>
-        <v>27</v>
+        <f t="shared" ref="E17:E18" si="4">(C17-B17)/D17 + D17</f>
+        <v>25</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G22" si="3">E17*G16</f>
-        <v>729</v>
+        <f t="shared" ref="G17:G21" si="5">E17*G16</f>
+        <v>675</v>
       </c>
       <c r="I17" s="3">
         <v>0.2</v>
       </c>
       <c r="J17" s="7">
-        <f>$G$22*I17</f>
-        <v>17496</v>
+        <f t="shared" si="3"/>
+        <v>11880</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -948,19 +948,19 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
-        <v>1458</v>
+        <f t="shared" si="5"/>
+        <v>1350</v>
       </c>
       <c r="I18" s="3">
         <v>0.3</v>
       </c>
       <c r="J18" s="7">
-        <f>$G$22*I18</f>
-        <v>26244</v>
+        <f t="shared" si="3"/>
+        <v>17820</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -981,15 +981,15 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
-        <v>2916</v>
+        <f t="shared" si="5"/>
+        <v>2700</v>
       </c>
       <c r="I19" s="3">
         <v>0.4</v>
       </c>
       <c r="J19" s="7">
-        <f>$G$22*I19</f>
-        <v>34992</v>
+        <f t="shared" si="3"/>
+        <v>23760</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -997,7 +997,7 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -1007,18 +1007,18 @@
       </c>
       <c r="E20">
         <f>(C20-B20)/D20 + D20</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
-        <v>29160</v>
+        <f t="shared" si="5"/>
+        <v>29700</v>
       </c>
       <c r="I20" s="3">
         <v>0.5</v>
       </c>
       <c r="J20" s="7">
-        <f>$G$22*I20</f>
-        <v>43740</v>
+        <f t="shared" si="3"/>
+        <v>29700</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1029,25 +1029,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
         <f>(C21-B21)/D21 + D21</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
-        <v>87480</v>
+        <f t="shared" si="5"/>
+        <v>59400</v>
       </c>
       <c r="I21" s="3">
         <v>0.6</v>
       </c>
       <c r="J21" s="7">
-        <f>$G$22*I21</f>
-        <v>52488</v>
+        <f t="shared" si="3"/>
+        <v>35640</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1057,14 +1057,14 @@
       </c>
       <c r="G22">
         <f>G21</f>
-        <v>87480</v>
+        <v>59400</v>
       </c>
       <c r="I22" s="3">
         <v>0.7</v>
       </c>
       <c r="J22" s="7">
-        <f>$G$22*I22</f>
-        <v>61235.999999999993</v>
+        <f t="shared" si="3"/>
+        <v>41580</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1072,8 +1072,8 @@
         <v>0.8</v>
       </c>
       <c r="J23" s="7">
-        <f>$G$22*I23</f>
-        <v>69984</v>
+        <f t="shared" si="3"/>
+        <v>47520</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1082,8 +1082,8 @@
         <v>0.9</v>
       </c>
       <c r="J24" s="7">
-        <f>$G$22*I24</f>
-        <v>78732</v>
+        <f t="shared" si="3"/>
+        <v>53460</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1099,8 +1099,8 @@
         <v>1</v>
       </c>
       <c r="J25" s="11">
-        <f>$G$22*I25</f>
-        <v>87480</v>
+        <f t="shared" si="3"/>
+        <v>59400</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1158,8 +1158,8 @@
         <v>0.1</v>
       </c>
       <c r="J29" s="7">
-        <f>$G$35*I29</f>
-        <v>4374</v>
+        <f t="shared" ref="J29:J38" si="6">$G$35*I29</f>
+        <v>4050</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1167,28 +1167,28 @@
         <v>5</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30:E35" si="4">(C30-B30)/D30 + D30</f>
-        <v>27</v>
+        <f t="shared" ref="E30:E31" si="7">(C30-B30)/D30 + D30</f>
+        <v>25</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30:G35" si="5">E30*G29</f>
-        <v>729</v>
+        <f t="shared" ref="G30:G34" si="8">E30*G29</f>
+        <v>675</v>
       </c>
       <c r="I30" s="3">
         <v>0.2</v>
       </c>
       <c r="J30" s="7">
-        <f>$G$35*I30</f>
-        <v>8748</v>
+        <f t="shared" si="6"/>
+        <v>8100</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1205,19 +1205,19 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G31">
-        <f t="shared" si="5"/>
-        <v>1458</v>
+        <f t="shared" si="8"/>
+        <v>1350</v>
       </c>
       <c r="I31" s="3">
         <v>0.3</v>
       </c>
       <c r="J31" s="7">
-        <f>$G$35*I31</f>
-        <v>13122</v>
+        <f t="shared" si="6"/>
+        <v>12150</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1239,14 +1239,14 @@
       </c>
       <c r="G32">
         <f>E32*G31</f>
-        <v>1458</v>
+        <v>1350</v>
       </c>
       <c r="I32" s="3">
         <v>0.4</v>
       </c>
       <c r="J32" s="7">
-        <f>$G$35*I32</f>
-        <v>17496</v>
+        <f t="shared" si="6"/>
+        <v>16200</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -1267,15 +1267,15 @@
         <v>10</v>
       </c>
       <c r="G33">
-        <f t="shared" si="5"/>
-        <v>14580</v>
+        <f t="shared" si="8"/>
+        <v>13500</v>
       </c>
       <c r="I33" s="3">
         <v>0.5</v>
       </c>
       <c r="J33" s="7">
-        <f>$G$35*I33</f>
-        <v>21870</v>
+        <f t="shared" si="6"/>
+        <v>20250</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -1296,15 +1296,15 @@
         <v>3</v>
       </c>
       <c r="G34">
-        <f t="shared" si="5"/>
-        <v>43740</v>
+        <f t="shared" si="8"/>
+        <v>40500</v>
       </c>
       <c r="I34" s="3">
         <v>0.6</v>
       </c>
       <c r="J34" s="7">
-        <f>$G$35*I34</f>
-        <v>26244</v>
+        <f t="shared" si="6"/>
+        <v>24300</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -1314,14 +1314,14 @@
       </c>
       <c r="G35">
         <f>G34</f>
-        <v>43740</v>
+        <v>40500</v>
       </c>
       <c r="I35" s="3">
         <v>0.7</v>
       </c>
       <c r="J35" s="7">
-        <f>$G$35*I35</f>
-        <v>30617.999999999996</v>
+        <f t="shared" si="6"/>
+        <v>28350</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -1329,8 +1329,8 @@
         <v>0.8</v>
       </c>
       <c r="J36" s="7">
-        <f>$G$35*I36</f>
-        <v>34992</v>
+        <f t="shared" si="6"/>
+        <v>32400</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -1339,8 +1339,8 @@
         <v>0.9</v>
       </c>
       <c r="J37" s="7">
-        <f>$G$35*I37</f>
-        <v>39366</v>
+        <f t="shared" si="6"/>
+        <v>36450</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1356,8 +1356,8 @@
         <v>1</v>
       </c>
       <c r="J38" s="11">
-        <f>$G$35*I38</f>
-        <v>43740</v>
+        <f t="shared" si="6"/>
+        <v>40500</v>
       </c>
     </row>
   </sheetData>
